--- a/Parsing_characteristis_and_photo/ОЗОН Equipe_try.xlsx
+++ b/Parsing_characteristis_and_photo/ОЗОН Equipe_try.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A6442-9EDD-4401-8FF8-A8A7636F9F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3044E20E-E7FB-4490-B14C-A9BF27ED14EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="3397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="3399">
   <si>
     <t>Как работать с шаблоном</t>
   </si>
@@ -12160,12 +12160,18 @@
   <si>
     <t>Equipe Бордюр SPLENDOURS LONDON BLUE NIGHT 5x15 см</t>
   </si>
+  <si>
+    <t>Варианты выбора</t>
+  </si>
+  <si>
+    <t>Пояснение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12247,8 +12253,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12290,8 +12311,14 @@
         <fgColor rgb="FF1849A9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -12334,11 +12361,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -12357,6 +12399,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -12379,6 +12422,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12660,13 +12706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:BB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12689,72 +12735,72 @@
     <row r="1" spans="1:54" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>3388</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3389</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>3390</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>3391</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="8" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>3392</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="9" t="s">
         <v>3393</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="8" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="9" t="s">
         <v>3394</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
     </row>
     <row r="2" spans="1:54" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -13018,163 +13064,137 @@
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3374</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3395</v>
-      </c>
-      <c r="D4" s="5">
-        <v>213</v>
-      </c>
-      <c r="E4">
-        <v>267</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="5">
-        <v>26000</v>
-      </c>
-      <c r="J4" s="5">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5">
-        <v>250</v>
-      </c>
-      <c r="L4" s="5">
-        <v>150</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>3375</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>3370</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>3371</v>
-      </c>
-      <c r="T4" t="s">
-        <v>3373</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>3372</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3371</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>445</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>3371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3379</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3378</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1783</v>
-      </c>
-      <c r="E5">
-        <v>2229</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="5">
-        <v>26000</v>
-      </c>
-      <c r="J5" s="5">
-        <v>100</v>
-      </c>
-      <c r="K5" s="5">
-        <v>250</v>
-      </c>
-      <c r="L5" s="5">
-        <v>200</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>3380</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3381</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>3370</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>3376</v>
-      </c>
-      <c r="S5" t="s">
-        <v>124</v>
-      </c>
-      <c r="T5" t="s">
-        <v>3378</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>20</v>
-      </c>
-      <c r="X5">
-        <v>1.2</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>3377</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>3376</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>3376</v>
-      </c>
+    <row r="4" spans="1:54" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+    </row>
+    <row r="5" spans="1:54" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3385</v>
+        <v>3374</v>
       </c>
       <c r="C6" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="D6" s="5">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="E6">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>98</v>
@@ -13192,22 +13212,16 @@
         <v>150</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>3386</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3387</v>
+        <v>3375</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>3370</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>3382</v>
-      </c>
-      <c r="S6" t="s">
-        <v>121</v>
+        <v>3371</v>
       </c>
       <c r="T6" t="s">
-        <v>3384</v>
+        <v>3373</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -13218,22 +13232,170 @@
       <c r="W6">
         <v>15</v>
       </c>
-      <c r="X6">
-        <v>5</v>
-      </c>
       <c r="Y6" s="5" t="s">
         <v>179</v>
       </c>
       <c r="Z6" t="s">
+        <v>3372</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3378</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1783</v>
+      </c>
+      <c r="E7">
+        <v>2229</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="5">
+        <v>26000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>250</v>
+      </c>
+      <c r="L7" s="5">
+        <v>200</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>3380</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3381</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>3370</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>3376</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3378</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>20</v>
+      </c>
+      <c r="X7">
+        <v>1.2</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>3377</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3376</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D8" s="5">
+        <v>290</v>
+      </c>
+      <c r="E8">
+        <v>363</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="5">
+        <v>26000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5">
+        <v>250</v>
+      </c>
+      <c r="L8" s="5">
+        <v>150</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>3386</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3387</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>3370</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>3382</v>
+      </c>
+      <c r="S8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3384</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>15</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" t="s">
         <v>3383</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC8" t="s">
         <v>3382</v>
       </c>
-      <c r="AG6">
+      <c r="AG8">
         <v>8</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AZ8" t="s">
         <v>3382</v>
       </c>
     </row>
@@ -13248,67 +13410,68 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation type="whole" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="G4:G499496 U4:U499496 AP4:AP499496 AR4:AR499496 A4:A499496" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="D4:D499496" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="V4:X499496 AE4:AE499496 AG4:AG499496 E4:E499496" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="F4:F499496" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="whole" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="G6:G499498 U6:U499498 AP6:AP499498 AR6:AR499498 A6:A499498" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="D6:D499498" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="V6:X499498 AE6:AE499498 AG6:AG499498 E6:E499498" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="F6:F499498" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>name5</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="I4:L499496" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation type="list" sqref="S4:S499496" xr:uid="{00000000-0002-0000-0400-000009000000}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="I6:L499498" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation type="list" sqref="S6:S499498" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>name18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="Y4:Y499496" xr:uid="{00000000-0002-0000-0400-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="Y6:Y499498" xr:uid="{00000000-0002-0000-0400-00000E000000}">
       <formula1>name24</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AF4:AF499496" xr:uid="{00000000-0002-0000-0400-000010000000}">
+    <dataValidation type="list" sqref="AF6:AF499498" xr:uid="{00000000-0002-0000-0400-000010000000}">
       <formula1>name31</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AH4:AH499496" xr:uid="{00000000-0002-0000-0400-000012000000}">
+    <dataValidation type="list" sqref="AH6:AH499498" xr:uid="{00000000-0002-0000-0400-000012000000}">
       <formula1>name33</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AI4:AI499496" xr:uid="{00000000-0002-0000-0400-000013000000}">
+    <dataValidation type="list" sqref="AI6:AI499498" xr:uid="{00000000-0002-0000-0400-000013000000}">
       <formula1>name34</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AJ4:AJ499496" xr:uid="{00000000-0002-0000-0400-000014000000}">
+    <dataValidation type="list" sqref="AJ6:AJ499498" xr:uid="{00000000-0002-0000-0400-000014000000}">
       <formula1>name35</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AK4:AK499496" xr:uid="{00000000-0002-0000-0400-000015000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AK6:AK499498" xr:uid="{00000000-0002-0000-0400-000015000000}">
       <formula1>name36</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AM4:AM499496" xr:uid="{00000000-0002-0000-0400-000016000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AM6:AM499498" xr:uid="{00000000-0002-0000-0400-000016000000}">
       <formula1>name38</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AN4:AN499496" xr:uid="{00000000-0002-0000-0400-000017000000}">
+    <dataValidation type="list" sqref="AN6:AN499498" xr:uid="{00000000-0002-0000-0400-000017000000}">
       <formula1>name39</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AQ4:AQ499496" xr:uid="{00000000-0002-0000-0400-000019000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AQ6:AQ499498" xr:uid="{00000000-0002-0000-0400-000019000000}">
       <formula1>name42</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AS4:AS499496" xr:uid="{00000000-0002-0000-0400-00001B000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AS6:AS499498" xr:uid="{00000000-0002-0000-0400-00001B000000}">
       <formula1>name44</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AT4:AT499496" xr:uid="{00000000-0002-0000-0400-00001C000000}">
+    <dataValidation type="list" sqref="AT6:AT499498" xr:uid="{00000000-0002-0000-0400-00001C000000}">
       <formula1>name45</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AU4:AU499496" xr:uid="{00000000-0002-0000-0400-00001D000000}">
+    <dataValidation type="list" sqref="AU6:AU499498" xr:uid="{00000000-0002-0000-0400-00001D000000}">
       <formula1>name46</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AV4:AV499496" xr:uid="{00000000-0002-0000-0400-00001E000000}">
+    <dataValidation type="list" sqref="AV6:AV499498" xr:uid="{00000000-0002-0000-0400-00001E000000}">
       <formula1>name47</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AW4:AW499496" xr:uid="{00000000-0002-0000-0400-00001F000000}">
+    <dataValidation type="list" sqref="AW6:AW499498" xr:uid="{00000000-0002-0000-0400-00001F000000}">
       <formula1>name48</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AX4:AX499496" xr:uid="{00000000-0002-0000-0400-000020000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AX6:AX499498" xr:uid="{00000000-0002-0000-0400-000020000000}">
       <formula1>name49</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AY4:AY499496" xr:uid="{00000000-0002-0000-0400-000021000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AY6:AY499498" xr:uid="{00000000-0002-0000-0400-000021000000}">
       <formula1>name50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13331,7 +13494,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13394,19 +13557,19 @@
     <row r="1" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -13499,10 +13662,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -13558,349 +13721,349 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -28512,7 +28675,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28569,11 +28732,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
